--- a/data/trans_dic/P20_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido menos unido/a con el resto de la sociedad</t>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>69,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>58,49%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,95; 40,0</t>
+          <t>56,33; 75,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,06; 52,32</t>
+          <t>43,31; 61,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,85; 34,44</t>
+          <t>65,3; 77,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,87; 46,14</t>
+          <t>56,62; 70,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 35,04</t>
+          <t>63,77; 74,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,16; 46,71</t>
+          <t>51,86; 63,41</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>66,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>64,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>59,47%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,86; 43,27</t>
+          <t>53,09; 70,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,54; 41,94</t>
+          <t>51,91; 69,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,57; 37,55</t>
+          <t>59,63; 74,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,16; 48,55</t>
+          <t>50,58; 66,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 38,07</t>
+          <t>59,09; 70,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,26; 43,27</t>
+          <t>52,75; 65,25</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,48%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>74,42%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,69; 70,89</t>
+          <t>17,46; 64,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,88; 53,37</t>
+          <t>48,91; 89,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,8; 41,72</t>
+          <t>52,8; 83,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 31,08</t>
+          <t>62,33; 89,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,32; 53,66</t>
+          <t>36,21; 70,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,1; 39,85</t>
+          <t>62,08; 85,89</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>69,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>60,59%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,37; 41,85</t>
+          <t>54,34; 68,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,3; 44,97</t>
+          <t>50,39; 64,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,94; 34,18</t>
+          <t>64,59; 73,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,12; 42,75</t>
+          <t>57,65; 67,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,54; 36,43</t>
+          <t>62,17; 69,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,38; 42,49</t>
+          <t>56,01; 64,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>245058</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>226917</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>312909</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>312632</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>557966</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>539549</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>206021; 274711</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>185307; 263670</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>284302; 338039</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>280055; 348237</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>510854; 594758</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>478415; 585007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>190426</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>216117</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>234171</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>243008</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>424597</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>459125</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>161776; 213784</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>185452; 247876</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>208749; 259203</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>209818; 277809</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>386942; 460992</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>407256; 503803</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36343</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>71821</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>57153</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>79212</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93496</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>151032</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14811; 54852</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49773; 90834</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43616; 68569</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>63055; 90304</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>60635; 118391</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>125976; 174299</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>471827</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>514855</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>604233</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>634852</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1076060</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1149707</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>410425; 513871</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>446933; 569254</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>560703; 642034</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>582624; 685694</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1009199; 1135884</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1062764; 1224086</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>